--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW14.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW14.xlsx
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="D128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="F128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="I128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="J128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="K128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>6.729394739760001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="D176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="E176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="G176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="I176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="K176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
       <c r="L176" t="n">
-        <v>1.08045</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="K178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.6484333332679999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.320908333301</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7399,37 +7399,37 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="G193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="G221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="H221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5747500000633332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
@@ -14429,37 +14429,37 @@
         <v>377.0</v>
       </c>
       <c r="B378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="C378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="D378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="E378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="F378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="G378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="H378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="I378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="J378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="K378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="L378" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="379">
@@ -16481,37 +16481,37 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="D432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="E432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="F432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="G432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="H432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="I432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="J432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="K432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="L432" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -23663,37 +23663,37 @@
         <v>620.0</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="C621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="D621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="E621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="F621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="G621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="I621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="J621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="K621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
       <c r="L621" t="n">
-        <v>0.5961666667973333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="622">
